--- a/DateBase/orders/dang_2024-10-12.xlsx
+++ b/DateBase/orders/dang_2024-10-12.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035201551541022250</v>
+        <v>0352015515410222525</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-12.xlsx
+++ b/DateBase/orders/dang_2024-10-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,165 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>72_泽娜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>6</v>
+      </c>
+      <c r="C26" t="str">
+        <v>609_康乃馨小天使_angle_undefined_20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L29"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +743,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0352015515410222525</v>
+        <v>03520155154102225251748202036449615530423030101003030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang_2024-10-12.xlsx
+++ b/DateBase/orders/dang_2024-10-12.xlsx
@@ -745,6 +745,9 @@
       <c r="G2" t="str">
         <v>03520155154102225251748202036449615530423030101003030</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
